--- a/Code/Results/Cases/Case_0_195/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_195/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.11390412059697</v>
+        <v>13.46456841828657</v>
       </c>
       <c r="D2">
-        <v>4.061093232933207</v>
+        <v>7.237647162246525</v>
       </c>
       <c r="E2">
-        <v>8.584017405315839</v>
+        <v>14.00369035395977</v>
       </c>
       <c r="F2">
-        <v>41.85548735893411</v>
+        <v>47.40230617506971</v>
       </c>
       <c r="G2">
-        <v>2.049334093637726</v>
+        <v>3.711498604868209</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.578906601835281</v>
+        <v>11.29078040900452</v>
       </c>
       <c r="L2">
-        <v>5.219385051381493</v>
+        <v>9.595067975462683</v>
       </c>
       <c r="O2">
-        <v>31.90081947306652</v>
+        <v>36.86143484149457</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9.728676092597983</v>
+        <v>13.44089697468714</v>
       </c>
       <c r="D3">
-        <v>4.066905756955158</v>
+        <v>7.249130751239226</v>
       </c>
       <c r="E3">
-        <v>8.45660880977527</v>
+        <v>14.02303258333953</v>
       </c>
       <c r="F3">
-        <v>39.73185140175301</v>
+        <v>47.12862184932497</v>
       </c>
       <c r="G3">
-        <v>2.061322818551766</v>
+        <v>3.715841198117704</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,13 +477,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.530139374856539</v>
+        <v>11.31216645505454</v>
       </c>
       <c r="L3">
-        <v>5.249089042151899</v>
+        <v>9.615335707911301</v>
       </c>
       <c r="O3">
-        <v>30.32349895012628</v>
+        <v>36.66990447118242</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,19 +491,19 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>9.493916140802632</v>
+        <v>13.42938265462392</v>
       </c>
       <c r="D4">
-        <v>4.071688660300994</v>
+        <v>7.256736956643145</v>
       </c>
       <c r="E4">
-        <v>8.383509457200375</v>
+        <v>14.03716565015119</v>
       </c>
       <c r="F4">
-        <v>38.41366115092321</v>
+        <v>46.97262192089115</v>
       </c>
       <c r="G4">
-        <v>2.06884526054842</v>
+        <v>3.718646908430662</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.504182201759099</v>
+        <v>11.3269109368498</v>
       </c>
       <c r="L4">
-        <v>5.268968048287868</v>
+        <v>9.628643202278969</v>
       </c>
       <c r="O4">
-        <v>29.34646043477582</v>
+        <v>36.56157404316798</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>9.398775910285639</v>
+        <v>13.42545186324616</v>
       </c>
       <c r="D5">
-        <v>4.073934024270197</v>
+        <v>7.259976432875158</v>
       </c>
       <c r="E5">
-        <v>8.354984036768439</v>
+        <v>14.04349205974692</v>
       </c>
       <c r="F5">
-        <v>37.87338115348213</v>
+        <v>46.91212518869642</v>
       </c>
       <c r="G5">
-        <v>2.071954618905909</v>
+        <v>3.719825436473871</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.49457258936247</v>
+        <v>11.33332499675213</v>
       </c>
       <c r="L5">
-        <v>5.27747701633723</v>
+        <v>9.634283630440986</v>
       </c>
       <c r="O5">
-        <v>28.9465146311035</v>
+        <v>36.51978946809265</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>9.383012360000857</v>
+        <v>13.42484518937866</v>
       </c>
       <c r="D6">
-        <v>4.074324513261224</v>
+        <v>7.260522802078719</v>
       </c>
       <c r="E6">
-        <v>8.350322923225727</v>
+        <v>14.04457679044524</v>
       </c>
       <c r="F6">
-        <v>37.78349701564644</v>
+        <v>46.90226669068198</v>
       </c>
       <c r="G6">
-        <v>2.072473669305785</v>
+        <v>3.720023258950125</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.493034414802362</v>
+        <v>11.33441453733435</v>
       </c>
       <c r="L6">
-        <v>5.278914450982338</v>
+        <v>9.635233371458447</v>
       </c>
       <c r="O6">
-        <v>28.88000778404219</v>
+        <v>36.51299456900799</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>9.492630798392719</v>
+        <v>13.4293265576303</v>
       </c>
       <c r="D7">
-        <v>4.071717753661937</v>
+        <v>7.25678007859456</v>
       </c>
       <c r="E7">
-        <v>8.383119674164849</v>
+        <v>14.03724867492402</v>
       </c>
       <c r="F7">
-        <v>38.40638659393289</v>
+        <v>46.97179353550013</v>
       </c>
       <c r="G7">
-        <v>2.068887012476569</v>
+        <v>3.718662659852911</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -617,13 +617,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.504048727549984</v>
+        <v>11.32699579719404</v>
       </c>
       <c r="L7">
-        <v>5.269081156330964</v>
+        <v>9.628718389690167</v>
       </c>
       <c r="O7">
-        <v>29.3410733521277</v>
+        <v>36.56100092582786</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>9.980753728866683</v>
+        <v>13.45578106520064</v>
       </c>
       <c r="D8">
-        <v>4.062839761690857</v>
+        <v>7.241491624922933</v>
       </c>
       <c r="E8">
-        <v>8.539005809899903</v>
+        <v>14.00989090444787</v>
       </c>
       <c r="F8">
-        <v>41.1264668536547</v>
+        <v>47.30546942562894</v>
       </c>
       <c r="G8">
-        <v>2.053436427964483</v>
+        <v>3.712967095336456</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -652,13 +652,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.561243372384032</v>
+        <v>11.29781939222442</v>
       </c>
       <c r="L8">
-        <v>5.22928366907796</v>
+        <v>9.601877470073202</v>
       </c>
       <c r="O8">
-        <v>31.35891996200614</v>
+        <v>36.79349024983676</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>10.94934754712293</v>
+        <v>13.53150781846155</v>
       </c>
       <c r="D9">
-        <v>4.055516174901126</v>
+        <v>7.21590476987804</v>
       </c>
       <c r="E9">
-        <v>8.886691575659791</v>
+        <v>13.97416704116746</v>
       </c>
       <c r="F9">
-        <v>46.3333509310656</v>
+        <v>48.0531048756793</v>
       </c>
       <c r="G9">
-        <v>2.024249935423017</v>
+        <v>3.702897338804731</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -687,13 +687,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.706651932792545</v>
+        <v>11.25341156141796</v>
       </c>
       <c r="L9">
-        <v>5.164482630794763</v>
+        <v>9.556067829806308</v>
       </c>
       <c r="O9">
-        <v>35.23755348249406</v>
+        <v>37.32147138025219</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>11.66590198148703</v>
+        <v>13.6014938719128</v>
       </c>
       <c r="D10">
-        <v>4.057005714952695</v>
+        <v>7.19976875209966</v>
       </c>
       <c r="E10">
-        <v>9.169775348812651</v>
+        <v>13.95886894994041</v>
       </c>
       <c r="F10">
-        <v>50.07337520216611</v>
+        <v>48.65592705651143</v>
       </c>
       <c r="G10">
-        <v>2.003219411829207</v>
+        <v>3.696160297802362</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.836186664879524</v>
+        <v>11.22860026253204</v>
       </c>
       <c r="L10">
-        <v>5.125299599221419</v>
+        <v>9.526541753109228</v>
       </c>
       <c r="O10">
-        <v>38.03338365255875</v>
+        <v>37.7511012954394</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>11.99303630317451</v>
+        <v>13.63639464457943</v>
       </c>
       <c r="D11">
-        <v>4.059366800831198</v>
+        <v>7.193002898745478</v>
       </c>
       <c r="E11">
-        <v>9.305114312806561</v>
+        <v>13.95428940830532</v>
       </c>
       <c r="F11">
-        <v>51.75772237748989</v>
+        <v>48.94099179011069</v>
       </c>
       <c r="G11">
-        <v>1.993672159712705</v>
+        <v>3.693237113819939</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.900651585632686</v>
+        <v>11.21901114985903</v>
       </c>
       <c r="L11">
-        <v>5.109396815245097</v>
+        <v>9.513999979181319</v>
       </c>
       <c r="O11">
-        <v>39.29468326108145</v>
+        <v>37.95507418711851</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,19 +771,19 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>12.11712700680129</v>
+        <v>13.65004563244623</v>
       </c>
       <c r="D12">
-        <v>4.060522038384096</v>
+        <v>7.190523199770267</v>
       </c>
       <c r="E12">
-        <v>9.357364599240015</v>
+        <v>13.95289744902856</v>
       </c>
       <c r="F12">
-        <v>52.39343019045224</v>
+        <v>49.05042410277716</v>
       </c>
       <c r="G12">
-        <v>1.990052867411106</v>
+        <v>3.692150384744062</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.925917166654879</v>
+        <v>11.21562416779595</v>
       </c>
       <c r="L12">
-        <v>5.10366033662221</v>
+        <v>9.50937819002263</v>
       </c>
       <c r="O12">
-        <v>39.77104102129692</v>
+        <v>38.03349089720409</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>12.09039136540198</v>
+        <v>13.6470864069972</v>
       </c>
       <c r="D13">
-        <v>4.060261285962597</v>
+        <v>7.191053586949215</v>
       </c>
       <c r="E13">
-        <v>9.346066039623086</v>
+        <v>13.95318201306632</v>
       </c>
       <c r="F13">
-        <v>52.25660621302291</v>
+        <v>49.02679108287165</v>
       </c>
       <c r="G13">
-        <v>1.990832641745354</v>
+        <v>3.692383534264617</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.920436778903971</v>
+        <v>11.21634275281282</v>
       </c>
       <c r="L13">
-        <v>5.104882928732905</v>
+        <v>9.510367911024186</v>
       </c>
       <c r="O13">
-        <v>39.66849992392699</v>
+        <v>38.01655095156386</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,19 +841,19 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>12.00324070004439</v>
+        <v>13.63750904012132</v>
       </c>
       <c r="D14">
-        <v>4.059456488980617</v>
+        <v>7.192797242650474</v>
       </c>
       <c r="E14">
-        <v>9.309392558503369</v>
+        <v>13.95416803274465</v>
       </c>
       <c r="F14">
-        <v>51.8100623783875</v>
+        <v>48.9499655354399</v>
       </c>
       <c r="G14">
-        <v>1.993374520134233</v>
+        <v>3.693147303550291</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.902712723253113</v>
+        <v>11.2187276061686</v>
       </c>
       <c r="L14">
-        <v>5.108919091189066</v>
+        <v>9.513617188860877</v>
       </c>
       <c r="O14">
-        <v>39.33389704149286</v>
+        <v>37.96150229263643</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,19 +876,19 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>11.9498878848593</v>
+        <v>13.63169907231199</v>
       </c>
       <c r="D15">
-        <v>4.058998154471936</v>
+        <v>7.193876004016209</v>
       </c>
       <c r="E15">
-        <v>9.287061156819918</v>
+        <v>13.95481656350215</v>
       </c>
       <c r="F15">
-        <v>51.53627831990377</v>
+        <v>48.90309874599466</v>
       </c>
       <c r="G15">
-        <v>1.994930760280234</v>
+        <v>3.693617763187826</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.891969306717797</v>
+        <v>11.22022020260248</v>
       </c>
       <c r="L15">
-        <v>5.111428841328401</v>
+        <v>9.515624057686123</v>
       </c>
       <c r="O15">
-        <v>39.12878746018193</v>
+        <v>37.92793509483942</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>11.64454952224281</v>
+        <v>13.59927419815431</v>
       </c>
       <c r="D16">
-        <v>4.056886850279129</v>
+        <v>7.200222457274363</v>
       </c>
       <c r="E16">
-        <v>9.16106726377015</v>
+        <v>13.95921612271147</v>
       </c>
       <c r="F16">
-        <v>49.9629809497613</v>
+        <v>48.6375092368538</v>
       </c>
       <c r="G16">
-        <v>2.003843185583777</v>
+        <v>3.696354171179732</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -932,13 +932,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.832089935874758</v>
+        <v>11.22926110294033</v>
       </c>
       <c r="L16">
-        <v>5.126378313003223</v>
+        <v>9.527379254438779</v>
       </c>
       <c r="O16">
-        <v>37.95076073173999</v>
+        <v>37.73793862966051</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>11.45755491229233</v>
+        <v>13.5801634005786</v>
       </c>
       <c r="D17">
-        <v>4.056035461710701</v>
+        <v>7.204262780214714</v>
       </c>
       <c r="E17">
-        <v>9.085491682362148</v>
+        <v>13.96252464355484</v>
       </c>
       <c r="F17">
-        <v>48.99363632128573</v>
+        <v>48.47730286586638</v>
       </c>
       <c r="G17">
-        <v>2.009311183827011</v>
+        <v>3.698069022148583</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -967,13 +967,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.796813136149979</v>
+        <v>11.23524228606841</v>
       </c>
       <c r="L17">
-        <v>5.136047702370019</v>
+        <v>9.534818266726166</v>
       </c>
       <c r="O17">
-        <v>37.22551412741667</v>
+        <v>37.62353220979392</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,19 +981,19 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>11.35010616744016</v>
+        <v>13.56946013472514</v>
       </c>
       <c r="D18">
-        <v>4.055702921640123</v>
+        <v>7.206640755558605</v>
       </c>
       <c r="E18">
-        <v>9.042636321326967</v>
+        <v>13.96465160525664</v>
       </c>
       <c r="F18">
-        <v>48.43446398422003</v>
+        <v>48.38618115253882</v>
       </c>
       <c r="G18">
-        <v>2.012458540312997</v>
+        <v>3.699068688541295</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1002,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.777040345163539</v>
+        <v>11.23884229425479</v>
       </c>
       <c r="L18">
-        <v>5.141789544135376</v>
+        <v>9.539180766894257</v>
       </c>
       <c r="O18">
-        <v>36.80735698217033</v>
+        <v>37.55853491760426</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>11.31374320515</v>
+        <v>13.56588595247155</v>
       </c>
       <c r="D19">
-        <v>4.055616787827343</v>
+        <v>7.207455193937511</v>
       </c>
       <c r="E19">
-        <v>9.028230099627649</v>
+        <v>13.96541022556529</v>
       </c>
       <c r="F19">
-        <v>48.24485055910364</v>
+        <v>48.35550711223614</v>
       </c>
       <c r="G19">
-        <v>2.013524768194516</v>
+        <v>3.699409451859861</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.77043286659416</v>
+        <v>11.24008863616199</v>
       </c>
       <c r="L19">
-        <v>5.143764333543277</v>
+        <v>9.540672236809339</v>
       </c>
       <c r="O19">
-        <v>36.66559657271004</v>
+        <v>37.53666791909161</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,19 +1051,19 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>11.47744966525192</v>
+        <v>13.58216793176913</v>
       </c>
       <c r="D20">
-        <v>4.056109699818276</v>
+        <v>7.203827084665054</v>
       </c>
       <c r="E20">
-        <v>9.093472942009258</v>
+        <v>13.96214926343788</v>
       </c>
       <c r="F20">
-        <v>49.09699168739052</v>
+        <v>48.4942515757616</v>
       </c>
       <c r="G20">
-        <v>2.008728913085589</v>
+        <v>3.697885094761881</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.800514460879025</v>
+        <v>11.23458904057303</v>
       </c>
       <c r="L20">
-        <v>5.13499965998306</v>
+        <v>9.534017703779313</v>
       </c>
       <c r="O20">
-        <v>37.30282150047409</v>
+        <v>37.63562788101444</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,19 +1086,19 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>12.02883269257484</v>
+        <v>13.64031039274428</v>
       </c>
       <c r="D21">
-        <v>4.059685622683323</v>
+        <v>7.19228285467719</v>
       </c>
       <c r="E21">
-        <v>9.320136787100074</v>
+        <v>13.95386912761617</v>
       </c>
       <c r="F21">
-        <v>51.94127711275961</v>
+        <v>48.97249137689697</v>
       </c>
       <c r="G21">
-        <v>1.992628075335249</v>
+        <v>3.692922418376558</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.907895027738705</v>
+        <v>11.21802048871059</v>
       </c>
       <c r="L21">
-        <v>5.107725742461557</v>
+        <v>9.512659340151561</v>
       </c>
       <c r="O21">
-        <v>39.43220982541432</v>
+        <v>37.97763989797344</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>12.39047450035475</v>
+        <v>13.68084124487542</v>
       </c>
       <c r="D22">
-        <v>4.063556054148432</v>
+        <v>7.18521811846803</v>
       </c>
       <c r="E22">
-        <v>9.474141326803105</v>
+        <v>13.95045219905905</v>
       </c>
       <c r="F22">
-        <v>53.78811939482245</v>
+        <v>49.29366513159245</v>
       </c>
       <c r="G22">
-        <v>1.982078262696322</v>
+        <v>3.68979680195909</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.983085922296844</v>
+        <v>11.20861542338142</v>
       </c>
       <c r="L22">
-        <v>5.091570392700026</v>
+        <v>9.499443429866568</v>
       </c>
       <c r="O22">
-        <v>40.81670493690706</v>
+        <v>38.20799774611486</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>12.1973188129816</v>
+        <v>13.65897959643821</v>
       </c>
       <c r="D23">
-        <v>4.061342891946036</v>
+        <v>7.188944848577767</v>
       </c>
       <c r="E23">
-        <v>9.391387336335026</v>
+        <v>13.95209339001118</v>
       </c>
       <c r="F23">
-        <v>52.8033733456946</v>
+        <v>49.12148544161735</v>
       </c>
       <c r="G23">
-        <v>1.987713885117097</v>
+        <v>3.691454269784962</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.942475297566772</v>
+        <v>11.21350481907344</v>
       </c>
       <c r="L23">
-        <v>5.100036628094103</v>
+        <v>9.506429168724976</v>
       </c>
       <c r="O23">
-        <v>40.07831386833717</v>
+        <v>38.08444339419753</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>11.46845507289261</v>
+        <v>13.58126079885888</v>
       </c>
       <c r="D24">
-        <v>4.056075649343354</v>
+        <v>7.204023890857139</v>
       </c>
       <c r="E24">
-        <v>9.089862768297431</v>
+        <v>13.96231827243731</v>
       </c>
       <c r="F24">
-        <v>49.05027061459782</v>
+        <v>48.48658599641973</v>
       </c>
       <c r="G24">
-        <v>2.008992145567782</v>
+        <v>3.697968205414837</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1212,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.798839512939016</v>
+        <v>11.23488387031035</v>
       </c>
       <c r="L24">
-        <v>5.135472911306464</v>
+        <v>9.534379371277483</v>
       </c>
       <c r="O24">
-        <v>37.26787460170557</v>
+        <v>37.63015700569962</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,19 +1226,19 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>10.68639022542979</v>
+        <v>13.50848548590462</v>
       </c>
       <c r="D25">
-        <v>4.05634882888489</v>
+        <v>7.222357963614956</v>
       </c>
       <c r="E25">
-        <v>8.787942885877383</v>
+        <v>13.98190979126682</v>
       </c>
       <c r="F25">
-        <v>44.93973774452928</v>
+        <v>47.84118917545359</v>
       </c>
       <c r="G25">
-        <v>2.032052003115812</v>
+        <v>3.70550471752001</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.663516344156081</v>
+        <v>11.26405308227013</v>
       </c>
       <c r="L25">
-        <v>5.180561583541451</v>
+        <v>9.567733037336074</v>
       </c>
       <c r="O25">
-        <v>34.19770252085972</v>
+        <v>37.17113856588036</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_195/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_195/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.46456841828657</v>
+        <v>10.11390412059704</v>
       </c>
       <c r="D2">
-        <v>7.237647162246525</v>
+        <v>4.061093232933016</v>
       </c>
       <c r="E2">
-        <v>14.00369035395977</v>
+        <v>8.584017405315899</v>
       </c>
       <c r="F2">
-        <v>47.40230617506971</v>
+        <v>41.85548735893418</v>
       </c>
       <c r="G2">
-        <v>3.711498604868209</v>
+        <v>2.049334093637729</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.29078040900452</v>
+        <v>6.578906601835385</v>
       </c>
       <c r="L2">
-        <v>9.595067975462683</v>
+        <v>5.219385051381466</v>
       </c>
       <c r="O2">
-        <v>36.86143484149457</v>
+        <v>31.90081947306658</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13.44089697468714</v>
+        <v>9.728676092597889</v>
       </c>
       <c r="D3">
-        <v>7.249130751239226</v>
+        <v>4.066905756955158</v>
       </c>
       <c r="E3">
-        <v>14.02303258333953</v>
+        <v>8.456608809775293</v>
       </c>
       <c r="F3">
-        <v>47.12862184932497</v>
+        <v>39.73185140175304</v>
       </c>
       <c r="G3">
-        <v>3.715841198117704</v>
+        <v>2.061322818551501</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,13 +477,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.31216645505454</v>
+        <v>6.530139374856568</v>
       </c>
       <c r="L3">
-        <v>9.615335707911301</v>
+        <v>5.249089042151932</v>
       </c>
       <c r="O3">
-        <v>36.66990447118242</v>
+        <v>30.32349895012629</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,19 +491,19 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>13.42938265462392</v>
+        <v>9.493916140802645</v>
       </c>
       <c r="D4">
-        <v>7.256736956643145</v>
+        <v>4.071688660301123</v>
       </c>
       <c r="E4">
-        <v>14.03716565015119</v>
+        <v>8.38350945720042</v>
       </c>
       <c r="F4">
-        <v>46.97262192089115</v>
+        <v>38.41366115092323</v>
       </c>
       <c r="G4">
-        <v>3.718646908430662</v>
+        <v>2.068845260548418</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.3269109368498</v>
+        <v>6.504182201759068</v>
       </c>
       <c r="L4">
-        <v>9.628643202278969</v>
+        <v>5.268968048287928</v>
       </c>
       <c r="O4">
-        <v>36.56157404316798</v>
+        <v>29.34646043477581</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>13.42545186324616</v>
+        <v>9.398775910285638</v>
       </c>
       <c r="D5">
-        <v>7.259976432875158</v>
+        <v>4.073934024270195</v>
       </c>
       <c r="E5">
-        <v>14.04349205974692</v>
+        <v>8.354984036768379</v>
       </c>
       <c r="F5">
-        <v>46.91212518869642</v>
+        <v>37.87338115348213</v>
       </c>
       <c r="G5">
-        <v>3.719825436473871</v>
+        <v>2.071954618905773</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.33332499675213</v>
+        <v>6.494572589362472</v>
       </c>
       <c r="L5">
-        <v>9.634283630440986</v>
+        <v>5.277477016337224</v>
       </c>
       <c r="O5">
-        <v>36.51978946809265</v>
+        <v>28.94651463110351</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>13.42484518937866</v>
+        <v>9.383012360000951</v>
       </c>
       <c r="D6">
-        <v>7.260522802078719</v>
+        <v>4.074324513261359</v>
       </c>
       <c r="E6">
-        <v>14.04457679044524</v>
+        <v>8.350322923225903</v>
       </c>
       <c r="F6">
-        <v>46.90226669068198</v>
+        <v>37.78349701564647</v>
       </c>
       <c r="G6">
-        <v>3.720023258950125</v>
+        <v>2.072473669305916</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.33441453733435</v>
+        <v>6.493034414802434</v>
       </c>
       <c r="L6">
-        <v>9.635233371458447</v>
+        <v>5.27891445098237</v>
       </c>
       <c r="O6">
-        <v>36.51299456900799</v>
+        <v>28.8800077840422</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>13.4293265576303</v>
+        <v>9.492630798392723</v>
       </c>
       <c r="D7">
-        <v>7.25678007859456</v>
+        <v>4.071717753662058</v>
       </c>
       <c r="E7">
-        <v>14.03724867492402</v>
+        <v>8.383119674164954</v>
       </c>
       <c r="F7">
-        <v>46.97179353550013</v>
+        <v>38.40638659393294</v>
       </c>
       <c r="G7">
-        <v>3.718662659852911</v>
+        <v>2.068887012476436</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -617,13 +617,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.32699579719404</v>
+        <v>6.504048727550043</v>
       </c>
       <c r="L7">
-        <v>9.628718389690167</v>
+        <v>5.269081156331058</v>
       </c>
       <c r="O7">
-        <v>36.56100092582786</v>
+        <v>29.34107335212772</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>13.45578106520064</v>
+        <v>9.980753728866723</v>
       </c>
       <c r="D8">
-        <v>7.241491624922933</v>
+        <v>4.062839761691044</v>
       </c>
       <c r="E8">
-        <v>14.00989090444787</v>
+        <v>8.539005809899962</v>
       </c>
       <c r="F8">
-        <v>47.30546942562894</v>
+        <v>41.12646685365466</v>
       </c>
       <c r="G8">
-        <v>3.712967095336456</v>
+        <v>2.053436427964614</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -652,13 +652,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.29781939222442</v>
+        <v>6.561243372383991</v>
       </c>
       <c r="L8">
-        <v>9.601877470073202</v>
+        <v>5.229283669078</v>
       </c>
       <c r="O8">
-        <v>36.79349024983676</v>
+        <v>31.35891996200607</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>13.53150781846155</v>
+        <v>10.94934754712294</v>
       </c>
       <c r="D9">
-        <v>7.21590476987804</v>
+        <v>4.055516174901183</v>
       </c>
       <c r="E9">
-        <v>13.97416704116746</v>
+        <v>8.886691575659796</v>
       </c>
       <c r="F9">
-        <v>48.0531048756793</v>
+        <v>46.33335093106562</v>
       </c>
       <c r="G9">
-        <v>3.702897338804731</v>
+        <v>2.024249935423014</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -687,13 +687,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.25341156141796</v>
+        <v>6.706651932792533</v>
       </c>
       <c r="L9">
-        <v>9.556067829806308</v>
+        <v>5.164482630794772</v>
       </c>
       <c r="O9">
-        <v>37.32147138025219</v>
+        <v>35.23755348249408</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>13.6014938719128</v>
+        <v>11.66590198148702</v>
       </c>
       <c r="D10">
-        <v>7.19976875209966</v>
+        <v>4.057005714952518</v>
       </c>
       <c r="E10">
-        <v>13.95886894994041</v>
+        <v>9.169775348812593</v>
       </c>
       <c r="F10">
-        <v>48.65592705651143</v>
+        <v>50.07337520216614</v>
       </c>
       <c r="G10">
-        <v>3.696160297802362</v>
+        <v>2.003219411829079</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.22860026253204</v>
+        <v>6.836186664879487</v>
       </c>
       <c r="L10">
-        <v>9.526541753109228</v>
+        <v>5.125299599221369</v>
       </c>
       <c r="O10">
-        <v>37.7511012954394</v>
+        <v>38.03338365255877</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>13.63639464457943</v>
+        <v>11.99303630317451</v>
       </c>
       <c r="D11">
-        <v>7.193002898745478</v>
+        <v>4.059366800831139</v>
       </c>
       <c r="E11">
-        <v>13.95428940830532</v>
+        <v>9.30511431280658</v>
       </c>
       <c r="F11">
-        <v>48.94099179011069</v>
+        <v>51.75772237748989</v>
       </c>
       <c r="G11">
-        <v>3.693237113819939</v>
+        <v>1.993672159712564</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.21901114985903</v>
+        <v>6.900651585632716</v>
       </c>
       <c r="L11">
-        <v>9.513999979181319</v>
+        <v>5.109396815245102</v>
       </c>
       <c r="O11">
-        <v>37.95507418711851</v>
+        <v>39.29468326108145</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,19 +771,19 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>13.65004563244623</v>
+        <v>12.11712700680135</v>
       </c>
       <c r="D12">
-        <v>7.190523199770267</v>
+        <v>4.060522038384152</v>
       </c>
       <c r="E12">
-        <v>13.95289744902856</v>
+        <v>9.357364599240064</v>
       </c>
       <c r="F12">
-        <v>49.05042410277716</v>
+        <v>52.39343019045209</v>
       </c>
       <c r="G12">
-        <v>3.692150384744062</v>
+        <v>1.990052867411106</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.21562416779595</v>
+        <v>6.925917166654942</v>
       </c>
       <c r="L12">
-        <v>9.50937819002263</v>
+        <v>5.103660336622204</v>
       </c>
       <c r="O12">
-        <v>38.03349089720409</v>
+        <v>39.7710410212968</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>13.6470864069972</v>
+        <v>12.09039136540193</v>
       </c>
       <c r="D13">
-        <v>7.191053586949215</v>
+        <v>4.060261285962747</v>
       </c>
       <c r="E13">
-        <v>13.95318201306632</v>
+        <v>9.346066039623011</v>
       </c>
       <c r="F13">
-        <v>49.02679108287165</v>
+        <v>52.25660621302293</v>
       </c>
       <c r="G13">
-        <v>3.692383534264617</v>
+        <v>1.990832641745348</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.21634275281282</v>
+        <v>6.920436778903878</v>
       </c>
       <c r="L13">
-        <v>9.510367911024186</v>
+        <v>5.104882928732845</v>
       </c>
       <c r="O13">
-        <v>38.01655095156386</v>
+        <v>39.66849992392702</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,19 +841,19 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>13.63750904012132</v>
+        <v>12.00324070004435</v>
       </c>
       <c r="D14">
-        <v>7.192797242650474</v>
+        <v>4.059456488980392</v>
       </c>
       <c r="E14">
-        <v>13.95416803274465</v>
+        <v>9.309392558503333</v>
       </c>
       <c r="F14">
-        <v>48.9499655354399</v>
+        <v>51.81006237838752</v>
       </c>
       <c r="G14">
-        <v>3.693147303550291</v>
+        <v>1.993374520134237</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.2187276061686</v>
+        <v>6.902712723253139</v>
       </c>
       <c r="L14">
-        <v>9.513617188860877</v>
+        <v>5.108919091189071</v>
       </c>
       <c r="O14">
-        <v>37.96150229263643</v>
+        <v>39.33389704149287</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,19 +876,19 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>13.63169907231199</v>
+        <v>11.94988788485932</v>
       </c>
       <c r="D15">
-        <v>7.193876004016209</v>
+        <v>4.058998154471928</v>
       </c>
       <c r="E15">
-        <v>13.95481656350215</v>
+        <v>9.287061156819911</v>
       </c>
       <c r="F15">
-        <v>48.90309874599466</v>
+        <v>51.53627831990384</v>
       </c>
       <c r="G15">
-        <v>3.693617763187826</v>
+        <v>1.994930760280491</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.22022020260248</v>
+        <v>6.891969306717821</v>
       </c>
       <c r="L15">
-        <v>9.515624057686123</v>
+        <v>5.111428841328337</v>
       </c>
       <c r="O15">
-        <v>37.92793509483942</v>
+        <v>39.12878746018198</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>13.59927419815431</v>
+        <v>11.64454952224283</v>
       </c>
       <c r="D16">
-        <v>7.200222457274363</v>
+        <v>4.056886850279071</v>
       </c>
       <c r="E16">
-        <v>13.95921612271147</v>
+        <v>9.161067263770093</v>
       </c>
       <c r="F16">
-        <v>48.6375092368538</v>
+        <v>49.9629809497613</v>
       </c>
       <c r="G16">
-        <v>3.696354171179732</v>
+        <v>2.003843185583907</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -932,13 +932,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.22926110294033</v>
+        <v>6.832089935874734</v>
       </c>
       <c r="L16">
-        <v>9.527379254438779</v>
+        <v>5.126378313003125</v>
       </c>
       <c r="O16">
-        <v>37.73793862966051</v>
+        <v>37.95076073174</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>13.5801634005786</v>
+        <v>11.45755491229233</v>
       </c>
       <c r="D17">
-        <v>7.204262780214714</v>
+        <v>4.056035461710582</v>
       </c>
       <c r="E17">
-        <v>13.96252464355484</v>
+        <v>9.08549168236215</v>
       </c>
       <c r="F17">
-        <v>48.47730286586638</v>
+        <v>48.99363632128571</v>
       </c>
       <c r="G17">
-        <v>3.698069022148583</v>
+        <v>2.009311183826883</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -967,13 +967,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.23524228606841</v>
+        <v>6.796813136150011</v>
       </c>
       <c r="L17">
-        <v>9.534818266726166</v>
+        <v>5.136047702369999</v>
       </c>
       <c r="O17">
-        <v>37.62353220979392</v>
+        <v>37.22551412741667</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,19 +981,19 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>13.56946013472514</v>
+        <v>11.35010616744023</v>
       </c>
       <c r="D18">
-        <v>7.206640755558605</v>
+        <v>4.055702921640057</v>
       </c>
       <c r="E18">
-        <v>13.96465160525664</v>
+        <v>9.042636321326967</v>
       </c>
       <c r="F18">
-        <v>48.38618115253882</v>
+        <v>48.43446398422005</v>
       </c>
       <c r="G18">
-        <v>3.699068688541295</v>
+        <v>2.012458540312997</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1002,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.23884229425479</v>
+        <v>6.777040345163593</v>
       </c>
       <c r="L18">
-        <v>9.539180766894257</v>
+        <v>5.141789544135377</v>
       </c>
       <c r="O18">
-        <v>37.55853491760426</v>
+        <v>36.80735698217035</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>13.56588595247155</v>
+        <v>11.31374320515003</v>
       </c>
       <c r="D19">
-        <v>7.207455193937511</v>
+        <v>4.055616787827459</v>
       </c>
       <c r="E19">
-        <v>13.96541022556529</v>
+        <v>9.028230099627637</v>
       </c>
       <c r="F19">
-        <v>48.35550711223614</v>
+        <v>48.24485055910365</v>
       </c>
       <c r="G19">
-        <v>3.699409451859861</v>
+        <v>2.013524768194388</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.24008863616199</v>
+        <v>6.770432866594134</v>
       </c>
       <c r="L19">
-        <v>9.540672236809339</v>
+        <v>5.143764333543277</v>
       </c>
       <c r="O19">
-        <v>37.53666791909161</v>
+        <v>36.66559657271002</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,19 +1051,19 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>13.58216793176913</v>
+        <v>11.47744966525192</v>
       </c>
       <c r="D20">
-        <v>7.203827084665054</v>
+        <v>4.056109699818215</v>
       </c>
       <c r="E20">
-        <v>13.96214926343788</v>
+        <v>9.093472942009303</v>
       </c>
       <c r="F20">
-        <v>48.4942515757616</v>
+        <v>49.09699168739044</v>
       </c>
       <c r="G20">
-        <v>3.697885094761881</v>
+        <v>2.008728913085458</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.23458904057303</v>
+        <v>6.800514460879098</v>
       </c>
       <c r="L20">
-        <v>9.534017703779313</v>
+        <v>5.134999659983089</v>
       </c>
       <c r="O20">
-        <v>37.63562788101444</v>
+        <v>37.30282150047404</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,19 +1086,19 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>13.64031039274428</v>
+        <v>12.02883269257485</v>
       </c>
       <c r="D21">
-        <v>7.19228285467719</v>
+        <v>4.059685622683314</v>
       </c>
       <c r="E21">
-        <v>13.95386912761617</v>
+        <v>9.320136787100065</v>
       </c>
       <c r="F21">
-        <v>48.97249137689697</v>
+        <v>51.94127711275964</v>
       </c>
       <c r="G21">
-        <v>3.692922418376558</v>
+        <v>1.992628075335367</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.21802048871059</v>
+        <v>6.907895027738739</v>
       </c>
       <c r="L21">
-        <v>9.512659340151561</v>
+        <v>5.107725742461586</v>
       </c>
       <c r="O21">
-        <v>37.97763989797344</v>
+        <v>39.43220982541436</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>13.68084124487542</v>
+        <v>12.39047450035474</v>
       </c>
       <c r="D22">
-        <v>7.18521811846803</v>
+        <v>4.063556054148449</v>
       </c>
       <c r="E22">
-        <v>13.95045219905905</v>
+        <v>9.474141326803009</v>
       </c>
       <c r="F22">
-        <v>49.29366513159245</v>
+        <v>53.78811939482254</v>
       </c>
       <c r="G22">
-        <v>3.68979680195909</v>
+        <v>1.98207826269646</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.20861542338142</v>
+        <v>6.983085922296767</v>
       </c>
       <c r="L22">
-        <v>9.499443429866568</v>
+        <v>5.091570392699944</v>
       </c>
       <c r="O22">
-        <v>38.20799774611486</v>
+        <v>40.81670493690709</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>13.65897959643821</v>
+        <v>12.19731881298159</v>
       </c>
       <c r="D23">
-        <v>7.188944848577767</v>
+        <v>4.061342891945872</v>
       </c>
       <c r="E23">
-        <v>13.95209339001118</v>
+        <v>9.391387336335008</v>
       </c>
       <c r="F23">
-        <v>49.12148544161735</v>
+        <v>52.80337334569452</v>
       </c>
       <c r="G23">
-        <v>3.691454269784962</v>
+        <v>1.987713885117235</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.21350481907344</v>
+        <v>6.94247529756678</v>
       </c>
       <c r="L23">
-        <v>9.506429168724976</v>
+        <v>5.100036628094076</v>
       </c>
       <c r="O23">
-        <v>38.08444339419753</v>
+        <v>40.07831386833708</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>13.58126079885888</v>
+        <v>11.46845507289257</v>
       </c>
       <c r="D24">
-        <v>7.204023890857139</v>
+        <v>4.056075649343226</v>
       </c>
       <c r="E24">
-        <v>13.96231827243731</v>
+        <v>9.089862768297346</v>
       </c>
       <c r="F24">
-        <v>48.48658599641973</v>
+        <v>49.05027061459787</v>
       </c>
       <c r="G24">
-        <v>3.697968205414837</v>
+        <v>2.008992145567779</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1212,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.23488387031035</v>
+        <v>6.798839512938984</v>
       </c>
       <c r="L24">
-        <v>9.534379371277483</v>
+        <v>5.135472911306384</v>
       </c>
       <c r="O24">
-        <v>37.63015700569962</v>
+        <v>37.26787460170563</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,19 +1226,19 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>13.50848548590462</v>
+        <v>10.6863902254299</v>
       </c>
       <c r="D25">
-        <v>7.222357963614956</v>
+        <v>4.056348828884826</v>
       </c>
       <c r="E25">
-        <v>13.98190979126682</v>
+        <v>8.787942885877422</v>
       </c>
       <c r="F25">
-        <v>47.84118917545359</v>
+        <v>44.93973774452925</v>
       </c>
       <c r="G25">
-        <v>3.70550471752001</v>
+        <v>2.032052003115812</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.26405308227013</v>
+        <v>6.663516344156101</v>
       </c>
       <c r="L25">
-        <v>9.567733037336074</v>
+        <v>5.180561583541388</v>
       </c>
       <c r="O25">
-        <v>37.17113856588036</v>
+        <v>34.19770252085971</v>
       </c>
     </row>
   </sheetData>
